--- a/data/trans_camb/P6907S1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6907S1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,15; 6,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,05; 7,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,86; 13,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 20,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,0; 6,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,1; 8,56</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-40,84%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-58,05%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>67,35%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>145,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,18%</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,41; 288,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,38; 376,14</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,12; 7,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,71; 2,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,51; 14,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,71; 19,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,25; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 6,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; 6,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,63; 0,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 8,39</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,27%</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 257,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 49,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,84; 258,81</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,91; 28,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,35; 5,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,53; 17,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,67; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,42; 19,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,96; 21,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,68; 14,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,13; 4,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,05; 14,49</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,63%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,77; 469,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,58; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 847,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 212,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,06; 361,62</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,82; 15,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,89; 4,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; 31,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,07; 8,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,59; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,73; 1,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,81; 9,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,39; -0,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,19; 10,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,99%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,66%</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 322,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,4</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,61</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,61</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,13</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,72; 40,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,8; -3,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,44; 1,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,99; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,0; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,77; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,95; 15,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,66; -6,21</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,3; -2,72</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,9%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,86%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,7%</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 368,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,06</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,42</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,98; -5,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,55; 11,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 28,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,61; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,61; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,74; 8,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,57; -5,48</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,96; 7,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,85; 13,89</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,33%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,75%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,81%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,69; 492,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,57; 220,71</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,24</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,88</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,73</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,06</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,9; -6,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,78; -1,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 14,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,59; 0,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,1; -0,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 18,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,26; -4,55</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,95; -3,8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,2; 13,25</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,37%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,45%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,36%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,57%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,46%</t>
         </is>
       </c>
     </row>
@@ -2092,12 +2092,12 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 35,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,98; 221,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,27 +2107,27 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 66,61</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,76; 295,96</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -24,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,2; -22,25</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,82; 153,02</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,83</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,83</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,54</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,06</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 21,71</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,63; -2,4</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,23; -2,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,32; -6,35</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,0; -6,41</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,99; -1,44</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,04; 9,42</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,84; -5,01</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,11; -2,65</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,39%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,78%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,26%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,07%</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 658,82</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 51,18</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 147,39</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -9,21</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 1,67</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,23; -2,09</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; 6,86</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; -2,73</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; -3,94</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; 3,24</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; -1,61</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,66; -4,11</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 3,07</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,15%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,5%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,02%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,4%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,64%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,06%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,98; 30,74</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,96; -27,42</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,42; 91,92</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,37; -20,83</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,99; -43,82</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,88; 46,71</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,33; -17,21</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,41; -46,05</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,05; 36,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6907S1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,07</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,77; 14,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 7,52</t>
+          <t>-16,33; 6,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,69; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 20,44</t>
+          <t>-6,12; 20,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,26; 6,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 8,56</t>
+          <t>-9,25; 8,21</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-58,05%</t>
+          <t>-61,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>145,3%</t>
+          <t>148,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,18%</t>
+          <t>-15,62%</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-89,38; 376,14</t>
+          <t>-90,55; 345,8</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 14,25</t>
+          <t>-11,78; 13,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 6,85</t>
+          <t>-13,66; 6,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 8,39</t>
+          <t>-7,84; 8,25</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,82%</t>
+          <t>-15,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,27%</t>
+          <t>-6,53%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,84; 258,81</t>
+          <t>-72,68; 254,38</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>5,71</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 17,3</t>
+          <t>-10,56; 17,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 21,26</t>
+          <t>-10,08; 21,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 14,49</t>
+          <t>-6,13; 14,34</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>86,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>57,63%</t>
+          <t>56,37%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,77; 469,38</t>
+          <t>-62,96; 472,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,58; —</t>
+          <t>-61,08; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 361,62</t>
+          <t>-35,41; 356,36</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-2,96</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 15,68</t>
+          <t>-8,7; 39,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 31,22</t>
+          <t>-7,06; 30,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,07; 8,88</t>
+          <t>-15,15; 47,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 1,29</t>
+          <t>-29,04; 0,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 9,03</t>
+          <t>-7,15; 32,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 10,46</t>
+          <t>-10,81; 6,89</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>70,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>75,45%</t>
+          <t>67,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-51,49%</t>
+          <t>50,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-84,29%</t>
+          <t>-89,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-17,35%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-23,66%</t>
+          <t>-40,24%</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 322,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>-9,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-14,31</t>
+          <t>-14,32</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 1,6</t>
+          <t>-28,46; 1,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-32,3; -2,72</t>
+          <t>-32,29; -2,73</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-76,13%</t>
+          <t>-76,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-88,7%</t>
+          <t>-88,77%</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,06</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,33</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 28,28</t>
+          <t>-7,57; 28,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 8,46</t>
+          <t>-21,52; 8,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 13,89</t>
+          <t>-11,67; 14,22</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>77,67%</t>
+          <t>78,77%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-19,79%</t>
+          <t>-20,26%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>26,83%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,69; 492,76</t>
+          <t>-40,83; 496,47</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-59,57; 220,71</t>
+          <t>-58,85; 226,91</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>4,22</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 14,65</t>
+          <t>-8,72; 14,5</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 18,15</t>
+          <t>-9,46; 18,61</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 13,25</t>
+          <t>-5,11; 13,37</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>32,97%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-53,98; 221,35</t>
+          <t>-54,09; 221,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,76; 295,96</t>
+          <t>-51,15; 301,37</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 153,02</t>
+          <t>-31,03; 154,07</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-11,54</t>
+          <t>-11,67</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-7,06</t>
+          <t>-7,16</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-23,99; -1,44</t>
+          <t>-24,24; -1,82</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-13,11; -2,65</t>
+          <t>-13,12; -2,99</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-77,78%</t>
+          <t>-78,67%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-81,07%</t>
+          <t>-82,17%</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 51,18</t>
+          <t>-100,0; 44,52</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -9,21</t>
+          <t>-100,0; -13,66</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,86</t>
+          <t>-2,73; 7,0</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 3,24</t>
+          <t>-7,54; 3,21</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 3,07</t>
+          <t>-4,06; 2,94</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>-24,15%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>-2,45%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 91,92</t>
+          <t>-25,81; 96,96</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 46,71</t>
+          <t>-55,74; 43,78</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 36,42</t>
+          <t>-35,53; 35,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6907S1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 14,61</t>
+          <t>-14,35; 13,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 6,16</t>
+          <t>-15,8; 4,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 6,53</t>
+          <t>-16,45; 6,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 0,0</t>
+          <t>-18,32; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 13,11</t>
+          <t>-10,04; 12,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 20,79</t>
+          <t>-6,31; 21,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 6,06</t>
+          <t>-11,18; 5,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 6,67</t>
+          <t>-8,58; 6,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 8,21</t>
+          <t>-8,47; 8,82</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 224,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,41; 288,53</t>
+          <t>-83,03; 253,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-90,55; 345,8</t>
+          <t>-87,0; 452,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 7,37</t>
+          <t>-14,07; 8,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 2,5</t>
+          <t>-14,64; 2,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 13,49</t>
+          <t>-11,54; 14,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 19,72</t>
+          <t>-9,32; 19,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 0,0</t>
+          <t>-18,2; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 6,77</t>
+          <t>-12,28; 7,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 6,9</t>
+          <t>-11,58; 6,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 0,41</t>
+          <t>-12,85; 0,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 8,25</t>
+          <t>-8,52; 7,73</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 496,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 257,56</t>
+          <t>-100,0; 246,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,33</t>
+          <t>-100,0; 88,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-72,68; 254,38</t>
+          <t>-77,33; 268,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 28,59</t>
+          <t>-14,16; 26,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 5,42</t>
+          <t>-18,92; 7,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 17,08</t>
+          <t>-11,41; 15,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 0,0</t>
+          <t>-32,09; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 19,55</t>
+          <t>-18,32; 16,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 21,06</t>
+          <t>-11,65; 20,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 14,97</t>
+          <t>-14,74; 15,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 4,72</t>
+          <t>-15,39; 5,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 14,34</t>
+          <t>-5,34; 15,42</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,96; 472,86</t>
+          <t>-72,39; 395,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,08; —</t>
+          <t>-65,76; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 847,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 212,37</t>
+          <t>-100,0; 199,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 356,36</t>
+          <t>-34,19; 351,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 39,0</t>
+          <t>-10,14; 42,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 4,66</t>
+          <t>-12,11; 4,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 30,23</t>
+          <t>-6,39; 31,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 47,75</t>
+          <t>-15,25; 45,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 0,0</t>
+          <t>-27,5; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 0,46</t>
+          <t>-26,46; 0,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 32,72</t>
+          <t>-7,4; 27,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -0,62</t>
+          <t>-12,57; -0,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 6,89</t>
+          <t>-10,12; 7,1</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 251,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 40,31</t>
+          <t>-15,94; 45,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-30,8; -3,78</t>
+          <t>-34,67; -3,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 1,58</t>
+          <t>-30,18; 1,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-71,99; 0,0</t>
+          <t>-71,51; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-72,0; 0,0</t>
+          <t>-71,76; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-71,77; 0,0</t>
+          <t>-71,79; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 15,72</t>
+          <t>-23,05; 16,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -6,21</t>
+          <t>-32,69; -6,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-32,29; -2,73</t>
+          <t>-31,11; -3,02</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 368,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-29,98; -5,02</t>
+          <t>-29,07; -4,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 11,64</t>
+          <t>-22,05; 11,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 28,59</t>
+          <t>-6,66; 30,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 0,0</t>
+          <t>-29,45; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-37,61; 0,0</t>
+          <t>-29,45; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 8,43</t>
+          <t>-25,95; 7,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-24,57; -5,48</t>
+          <t>-23,53; -3,72</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 7,42</t>
+          <t>-17,52; 7,53</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 14,22</t>
+          <t>-9,94; 15,02</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 266,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 496,47</t>
+          <t>-43,47; 487,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 161,69</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-58,85; 226,91</t>
+          <t>-55,27; 278,24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,9; -6,01</t>
+          <t>-22,25; -6,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-18,78; -1,02</t>
+          <t>-18,81; -1,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 14,5</t>
+          <t>-7,02; 14,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 0,57</t>
+          <t>-24,3; 0,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -0,63</t>
+          <t>-23,61; 0,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 18,61</t>
+          <t>-10,16; 17,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-18,26; -4,55</t>
+          <t>-18,52; -4,52</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-17,95; -3,8</t>
+          <t>-17,63; -3,72</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 13,37</t>
+          <t>-4,8; 12,79</t>
         </is>
       </c>
     </row>
@@ -2092,12 +2092,12 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 35,71</t>
+          <t>-100,0; 54,19</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-54,09; 221,8</t>
+          <t>-43,43; 213,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,27 +2107,27 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 66,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 301,37</t>
+          <t>-47,32; 286,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -24,0</t>
+          <t>-100,0; -21,02</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-94,2; -22,25</t>
+          <t>-94,19; -32,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 154,07</t>
+          <t>-32,83; 142,25</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 21,71</t>
+          <t>-5,39; 23,29</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-10,63; -2,4</t>
+          <t>-11,74; -2,39</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -2,48</t>
+          <t>-11,79; -2,45</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-28,32; -6,35</t>
+          <t>-26,46; -6,35</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-27,0; -6,41</t>
+          <t>-26,99; -6,24</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-24,24; -1,82</t>
+          <t>-23,66; -1,07</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 9,42</t>
+          <t>-9,28; 9,58</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-13,84; -5,01</t>
+          <t>-14,18; -5,07</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-13,12; -2,99</t>
+          <t>-12,23; -2,47</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 658,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 44,52</t>
+          <t>-100,0; 20,77</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 147,39</t>
+          <t>-100,0; 193,82</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -13,66</t>
+          <t>-100,0; -2,72</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,67</t>
+          <t>-7,97; 1,05</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -2,09</t>
+          <t>-9,31; -2,52</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 7,0</t>
+          <t>-2,38; 7,02</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -2,73</t>
+          <t>-12,91; -2,21</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -3,94</t>
+          <t>-13,12; -3,75</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 3,21</t>
+          <t>-7,51; 2,75</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -1,61</t>
+          <t>-8,94; -1,63</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -4,11</t>
+          <t>-9,37; -4,08</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,94</t>
+          <t>-3,78; 3,34</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-74,98; 30,74</t>
+          <t>-74,55; 20,46</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-81,96; -27,42</t>
+          <t>-80,42; -29,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 96,96</t>
+          <t>-22,32; 106,95</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-93,37; -20,83</t>
+          <t>-92,52; -9,92</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -43,82</t>
+          <t>-93,29; -43,66</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-55,74; 43,78</t>
+          <t>-54,82; 35,67</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-76,33; -17,21</t>
+          <t>-78,78; -15,37</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-81,41; -46,05</t>
+          <t>-81,76; -47,87</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 35,68</t>
+          <t>-33,17; 39,87</t>
         </is>
       </c>
     </row>
